--- a/app/Helpers/Excel/template/t_seikyu_mikakutei.xlsx
+++ b/app/Helpers/Excel/template/t_seikyu_mikakutei.xlsx
@@ -24,7 +24,7 @@
     <definedName name="打ち合わせメモ３" localSheetId="0">#REF!</definedName>
     <definedName name="打ち合わせメモ３">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -86,8 +86,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd;@"/>
-    <numFmt numFmtId="165" formatCode="yy/mm/dd\ hh:mm;@"/>
     <numFmt numFmtId="166" formatCode="yy&quot;年&quot;mm&quot;月&quot;dd&quot;日締&quot;;@"/>
+    <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ hh:mm;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -406,9 +406,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -426,19 +423,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,33 +501,42 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,24 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -525,49 +567,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -961,9 +961,7 @@
   </sheetPr>
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58:I58"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
   <cols>
@@ -986,90 +984,90 @@
     <row r="1" spans="1:20" ht="14.1" customHeight="1"/>
     <row r="2" spans="1:20" ht="14.1" customHeight="1"/>
     <row r="3" spans="1:20" ht="14.1" customHeight="1">
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:20" ht="14.1" customHeight="1">
       <c r="F4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="73"/>
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="14.1" customHeight="1">
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:20" ht="14.1" customHeight="1"/>
     <row r="7" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
     </row>
     <row r="8" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="36" t="s">
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="26" t="s">
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="27"/>
+      <c r="R8" s="46"/>
     </row>
     <row r="9" spans="1:20" ht="14.1" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="47"/>
     </row>
     <row r="10" spans="1:20" ht="14.1" customHeight="1">
       <c r="A10" s="9" t="s">
@@ -1078,42 +1076,42 @@
       <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="48"/>
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="56"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="13"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="33"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="50"/>
       <c r="T11" s="1">
         <v>2</v>
       </c>
@@ -1123,20 +1121,20 @@
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="56"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="13"/>
       <c r="P12" s="10"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="33"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="50"/>
       <c r="T12" s="1">
         <v>2</v>
       </c>
@@ -1146,16 +1144,16 @@
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="41"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="13"/>
@@ -1165,20 +1163,20 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="8"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="41"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="13"/>
@@ -1192,16 +1190,16 @@
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="56"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="13"/>
@@ -1211,20 +1209,20 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="13"/>
@@ -1238,16 +1236,16 @@
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
       <c r="O17" s="8"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -1261,16 +1259,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="56"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="13"/>
@@ -1284,16 +1282,16 @@
       <c r="B19" s="7"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="56"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="13"/>
@@ -1307,16 +1305,16 @@
       <c r="B20" s="7"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="56"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="13"/>
@@ -1330,16 +1328,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="56"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="13"/>
@@ -1353,16 +1351,16 @@
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="13"/>
@@ -1376,16 +1374,16 @@
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="41"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="13"/>
@@ -1399,16 +1397,16 @@
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="41"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="13"/>
@@ -1422,16 +1420,16 @@
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="41"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="13"/>
@@ -1445,16 +1443,16 @@
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="41"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="36"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="13"/>
@@ -1468,16 +1466,16 @@
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="41"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="13"/>
@@ -1491,16 +1489,16 @@
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="41"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="13"/>
@@ -1514,16 +1512,16 @@
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="41"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="13"/>
@@ -1537,16 +1535,16 @@
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="36"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="13"/>
@@ -1560,16 +1558,16 @@
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="41"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="36"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="13"/>
@@ -1583,16 +1581,16 @@
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="41"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="36"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="13"/>
@@ -1606,16 +1604,16 @@
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="36"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="13"/>
@@ -1629,16 +1627,16 @@
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="41"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="36"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="13"/>
@@ -1652,16 +1650,16 @@
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="41"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="36"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="13"/>
@@ -1675,16 +1673,16 @@
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="41"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="36"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="13"/>
@@ -1698,16 +1696,16 @@
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="41"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="36"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="13"/>
@@ -1721,16 +1719,16 @@
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="41"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="36"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="13"/>
@@ -1744,16 +1742,16 @@
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="41"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="36"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="13"/>
@@ -1767,16 +1765,16 @@
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="41"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="36"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="13"/>
@@ -1790,16 +1788,16 @@
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="41"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="36"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="13"/>
@@ -1813,16 +1811,16 @@
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="41"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="41"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="36"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="13"/>
@@ -1836,16 +1834,16 @@
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="41"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="41"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="36"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="13"/>
@@ -1859,16 +1857,16 @@
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="41"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="41"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="36"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="13"/>
@@ -1882,16 +1880,16 @@
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="41"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="36"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="41"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="36"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="13"/>
@@ -1901,395 +1899,491 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
       <c r="T46" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
       <c r="T47" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
       <c r="T48" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
       <c r="T49" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
       <c r="T50" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
       <c r="T51" s="1">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
       <c r="T52" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
       <c r="T53" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
       <c r="T54" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
       <c r="T55" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
       <c r="T56" s="1">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
       <c r="T57" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
       <c r="T58" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
       <c r="T59" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
       <c r="T60" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
       <c r="T61" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A63" s="61"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="69"/>
-      <c r="O63" s="70"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="73"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="Q8:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="I3:K5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="E8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:N10"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="K46:N46"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="E61:I61"/>
     <mergeCell ref="K61:N61"/>
@@ -2314,102 +2408,6 @@
     <mergeCell ref="E51:I51"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="E50:I50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="Q8:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="I3:K5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="E8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:N10"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="K13:N13"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.59055118110236204" bottom="0.59055118110236204" header="0.39370078740157499" footer="0.39370078740157499"/>
@@ -2419,6 +2417,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3d2e11e-e6ba-443e-9f5e-8cdf73633cb9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="16fe8ad7-3f90-4dbd-8cff-0e786c576a45" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101000B99B0653267F4489FD8F19DC510C9A2" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="49ad2a2b837c8026c626397cdeaa658b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3d2e11e-e6ba-443e-9f5e-8cdf73633cb9" xmlns:ns3="16fe8ad7-3f90-4dbd-8cff-0e786c576a45" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a5cd3bbfd19b1371c5b98f15425b60f6" ns2:_="" ns3:_="">
     <xsd:import namespace="f3d2e11e-e6ba-443e-9f5e-8cdf73633cb9"/>
@@ -2619,27 +2637,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5206B66B-0412-4EDC-8A4A-51105F5A35BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="16fe8ad7-3f90-4dbd-8cff-0e786c576a45"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f3d2e11e-e6ba-443e-9f5e-8cdf73633cb9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3d2e11e-e6ba-443e-9f5e-8cdf73633cb9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="16fe8ad7-3f90-4dbd-8cff-0e786c576a45" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{025EAFA2-461C-4B4F-A9E2-5C3A205A97A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9972288F-E73E-4096-A7A8-BC8D94BAE13E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2656,29 +2679,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{025EAFA2-461C-4B4F-A9E2-5C3A205A97A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5206B66B-0412-4EDC-8A4A-51105F5A35BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="16fe8ad7-3f90-4dbd-8cff-0e786c576a45"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f3d2e11e-e6ba-443e-9f5e-8cdf73633cb9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>